--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404298.432553966</v>
+        <v>-1406854.748381217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673314</v>
+        <v>12574568.46673313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>70.51113862850629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>23.79925355567593</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.374149395814442</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>115.0880679255932</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>53.61306014924001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>129.0278256233119</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>144.2875934942265</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>24.92093637964041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>52.80938221506538</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>196.162326659924</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.0738300495864</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>167.088927096535</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>53.7694747549366</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>136.759319468713</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>99.72336853884173</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>69.18922512558532</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>238.9689251340749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4467250013042</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>216.4795114578129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3244,7 +3244,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317889</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445513</v>
@@ -3427,13 +3427,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8079389392135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>936.6052194007785</v>
+        <v>799.6142115756895</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430626</v>
+        <v>1107.914056430632</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351039</v>
+        <v>1407.243655351045</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784699</v>
+        <v>1639.851155784705</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937214</v>
+        <v>1717.46145193722</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694742</v>
+        <v>1627.630994694748</v>
       </c>
       <c r="S4" t="n">
-        <v>1627.630994694742</v>
+        <v>1435.945110521574</v>
       </c>
       <c r="T4" t="n">
-        <v>1627.630994694742</v>
+        <v>1214.1784950911</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.528127820385</v>
+        <v>925.0756282167434</v>
       </c>
       <c r="V4" t="n">
-        <v>1222.27755415817</v>
+        <v>925.0756282167434</v>
       </c>
       <c r="W4" t="n">
-        <v>1222.27755415817</v>
+        <v>925.0756282167434</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>925.0756282167434</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>925.0756282167434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238872</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>362.3737997780813</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.2571603657456</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1398.838928232635</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1109.421758195675</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X7" t="n">
-        <v>881.4322072976571</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y7" t="n">
-        <v>660.639628154127</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.6290841382831</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.6290841382831</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.8408315400388</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.8549267504313</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158132</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1255.234897205469</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1000.550408999582</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1000.550408999582</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>985.7836617409686</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>816.8474788130617</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>666.7308394007259</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>518.8177458183328</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>371.9277983204224</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.967522499092</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.89229584329</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.207807637403</v>
+        <v>1905.631426649716</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1616.214256612756</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1388.224705714738</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1167.432126571208</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253733</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T16" t="n">
-        <v>2096.33187019581</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.256643540008</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.572155334121</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.15498529716</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.165434399143</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.372855255613</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1803.124031597425</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1548.439543391538</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.022373354577</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +5999,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908938</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,34 +6452,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6938,10 +6938,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,10 +7075,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580114</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111701</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7339,7 +7339,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,22 +7409,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7567,34 +7567,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954143</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380722</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,19 +7801,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>138.3747553788781</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>138.3747553788837</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>311.4192314437555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>303.953004914459</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>177.4578307861229</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.0495753982348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.7546635373322</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>80.6461308585753</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365869</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>117.6820817884465</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>182.9484181982427</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>33.38525518063307</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-4.993783292449712e-13</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
@@ -26323,7 +26323,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380013</v>
@@ -26332,13 +26332,13 @@
         <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
@@ -26347,13 +26347,13 @@
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="O2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742174</v>
+        <v>11234.60594742181</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,16 +26433,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994851</v>
@@ -26457,7 +26457,7 @@
         <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994851</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312511.57952095</v>
+        <v>-1312871.662536668</v>
       </c>
       <c r="C6" t="n">
-        <v>-37129.37343674303</v>
+        <v>-37129.37343674296</v>
       </c>
       <c r="D6" t="n">
         <v>-37129.37343674294</v>
       </c>
       <c r="E6" t="n">
-        <v>-279322.4237701166</v>
+        <v>-279357.1616955519</v>
       </c>
       <c r="F6" t="n">
-        <v>46090.03803723906</v>
+        <v>46055.30011180334</v>
       </c>
       <c r="G6" t="n">
-        <v>46090.03803723908</v>
+        <v>46055.30011180346</v>
       </c>
       <c r="H6" t="n">
-        <v>46090.03803723911</v>
+        <v>46055.30011180337</v>
       </c>
       <c r="I6" t="n">
-        <v>46090.03803723911</v>
+        <v>46055.30011180328</v>
       </c>
       <c r="J6" t="n">
-        <v>-171441.1643600382</v>
+        <v>-171475.9022854742</v>
       </c>
       <c r="K6" t="n">
-        <v>46090.03803723912</v>
+        <v>46055.30011180331</v>
       </c>
       <c r="L6" t="n">
-        <v>19408.90878536116</v>
+        <v>19408.9087853611</v>
       </c>
       <c r="M6" t="n">
-        <v>-46218.40115651907</v>
+        <v>-46218.40115651892</v>
       </c>
       <c r="N6" t="n">
+        <v>38836.62677899282</v>
+      </c>
+      <c r="O6" t="n">
+        <v>38836.62677899282</v>
+      </c>
+      <c r="P6" t="n">
         <v>38836.62677899285</v>
-      </c>
-      <c r="O6" t="n">
-        <v>38836.62677899291</v>
-      </c>
-      <c r="P6" t="n">
-        <v>38836.62677899282</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.3173099230218</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>240.7032750551571</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>2.146369152342658</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>227.2167069441876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>358.1123434383881</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>153.078642057489</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.758150132350892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.1229111090779</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717705</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982885</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>491.5977325265315</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722585</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33658,13 +33658,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>307.4984738629163</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>311.413984701962</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884371</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762701</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191329</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899059</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>349.0014880820871</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502402</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37306,13 +37306,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37795,7 +37795,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
